--- a/medicine/Enfance/Le_Docteur_March_marie_ses_filles/Le_Docteur_March_marie_ses_filles.xlsx
+++ b/medicine/Enfance/Le_Docteur_March_marie_ses_filles/Le_Docteur_March_marie_ses_filles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Docteur March marie ses filles ou Les Filles du docteur March se marient (Good Wives) est un roman de la femme de lettres américaine Louisa May Alcott, publié en 1869. Ce livre est la suite du roman Les Quatre Filles du docteur March.
@@ -514,7 +526,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le roman débute environ deux ans après la fin du précédent volume, avec le mariage de Meg et de M. Brooke. Alors que le premier tome était centré sur la vie commune des quatre sœurs, cette nouvelle aventure décrit la séparation des filles March : alors que Meg découvre la vie de couple et le rôle de mère, Jo part poursuivre sa carrière d'écrivain à New York. Beth souffre de plus en plus des séquelles de sa maladie, et Amy part visiter l'Europe.
 </t>
@@ -545,7 +559,9 @@
           <t>Personnages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Margaret « Meg » March-Brooke est la sœur aînée des quatre filles du pasteur March. Première des filles de la fratrie à se marier, elle doit devenir une femme d'intérieur, apprendre notamment à cuisiner puis à s'occuper de ses jumeaux : Demi et Daisy. Elle s'est mariée avec John Brook, le précepteur de Laurie.
 Joséphine « Jo » March est la deuxième des quatre filles March. Aventureuse et indépendante, elle souhaite devenir un écrivain accompli. Très proche de sa sœur Beth, Jo partira travailler à New York où elle fera la rencontre du professeur allemand Bhaer.
@@ -578,7 +594,9 @@
           <t>Éditions françaises</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1951 : Le docteur March marie ses filles, Éditions Hachette; illustré par Albert Chazelle; In-8 Carré; broché ; 184 pages.
 1993 : Les filles du docteur March se marient, Éditions Casterman; illustré par Frank T. Merrill ; traduit par Claude Lauriot-Prévost. 253 p.  (ISBN 2-203-13540-9).</t>
